--- a/АГСВ/АГСВ.ИО.xlsx
+++ b/АГСВ/АГСВ.ИО.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\357-22-RHTU-DKVR-4.13\АГСВ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\357-22-RHTU-DKVR-4.13\АГСВ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="атм1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">атм1!$A$1:$U$39,атм1!$A$41:$U$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">атм1!$A$1:$U$40,атм1!$A$42:$U$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>№ поз.</t>
   </si>
@@ -2009,6 +2009,12 @@
   </si>
   <si>
     <t>Светодиод "Питание 220В"</t>
+  </si>
+  <si>
+    <t>ШОА/HL4</t>
+  </si>
+  <si>
+    <t>Светодиод "Предупреждение"</t>
   </si>
 </sst>
 </file>
@@ -2846,6 +2852,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2869,66 +2935,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3249,10 +3255,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW122"/>
+  <dimension ref="A1:IW123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3274,58 +3280,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
     </row>
     <row r="2" spans="1:257" s="37" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91" t="s">
+      <c r="C2" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -3564,49 +3570,49 @@
       <c r="IW2" s="1"/>
     </row>
     <row r="3" spans="1:257" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="95"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89" t="s">
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89" t="s">
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89" t="s">
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
     </row>
     <row r="4" spans="1:257" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="86" t="s">
         <v>12</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20">
@@ -3867,12 +3873,12 @@
       </c>
       <c r="U10" s="21"/>
     </row>
-    <row r="11" spans="1:257" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:257" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="84" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20">
@@ -3902,43 +3908,43 @@
     </row>
     <row r="12" spans="1:257" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31">
-        <v>1</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35">
-        <v>1</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36">
-        <v>1</v>
-      </c>
-      <c r="R12" s="32"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="23">
+        <v>1</v>
+      </c>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" spans="1:257" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="84" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
@@ -3968,19 +3974,19 @@
     </row>
     <row r="14" spans="1:257" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="31">
-        <v>1</v>
-      </c>
+      <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
       <c r="I14" s="32"/>
       <c r="J14" s="33"/>
       <c r="K14" s="34"/>
@@ -3991,20 +3997,20 @@
       <c r="N14" s="34"/>
       <c r="O14" s="32"/>
       <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="36">
+        <v>1</v>
+      </c>
       <c r="R14" s="32"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="34">
-        <v>1</v>
-      </c>
+      <c r="T14" s="34"/>
       <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:257" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="84" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="31">
@@ -4034,10 +4040,10 @@
     </row>
     <row r="16" spans="1:257" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="84" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="31">
@@ -4067,10 +4073,10 @@
     </row>
     <row r="17" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="84" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="31">
@@ -4100,10 +4106,10 @@
     </row>
     <row r="18" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="84" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="31">
@@ -4133,10 +4139,10 @@
     </row>
     <row r="19" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="84" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="31">
@@ -4166,10 +4172,10 @@
     </row>
     <row r="20" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="84" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="31">
@@ -4199,10 +4205,10 @@
     </row>
     <row r="21" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="31">
@@ -4232,10 +4238,10 @@
     </row>
     <row r="22" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="31">
@@ -4265,10 +4271,10 @@
     </row>
     <row r="23" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="31">
@@ -4298,10 +4304,10 @@
     </row>
     <row r="24" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="31">
@@ -4331,10 +4337,10 @@
     </row>
     <row r="25" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="31">
@@ -4362,55 +4368,53 @@
       </c>
       <c r="U25" s="32"/>
     </row>
-    <row r="26" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24">
-        <v>2</v>
-      </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="20">
-        <v>1</v>
-      </c>
-      <c r="R26" s="26"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="23">
-        <v>1</v>
-      </c>
-      <c r="U26" s="21"/>
+        <v>126</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35">
+        <v>1</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="34">
+        <v>1</v>
+      </c>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -4420,30 +4424,32 @@
       <c r="L27" s="24">
         <v>2</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="21"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" s="26"/>
       <c r="S27" s="25"/>
-      <c r="T27" s="23"/>
+      <c r="T27" s="23">
+        <v>1</v>
+      </c>
       <c r="U27" s="21"/>
     </row>
     <row r="28" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -4451,14 +4457,14 @@
       <c r="J28" s="22"/>
       <c r="K28" s="23"/>
       <c r="L28" s="24">
-        <v>1</v>
-      </c>
-      <c r="M28" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="28"/>
       <c r="N28" s="25"/>
       <c r="O28" s="21"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="26"/>
       <c r="S28" s="25"/>
@@ -4467,10 +4473,10 @@
     </row>
     <row r="29" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
@@ -4486,7 +4492,7 @@
       <c r="L29" s="24">
         <v>1</v>
       </c>
-      <c r="M29" s="28"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="21"/>
       <c r="P29" s="25"/>
@@ -4498,55 +4504,65 @@
       <c r="T29" s="23"/>
       <c r="U29" s="21"/>
     </row>
-    <row r="30" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31">
-        <v>4</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35">
-        <v>4</v>
-      </c>
-      <c r="M30" s="36"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36">
-        <v>4</v>
-      </c>
-      <c r="R30" s="32"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="32"/>
+    <row r="30" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24">
+        <v>1</v>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="20">
+        <v>1</v>
+      </c>
+      <c r="R30" s="26"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="21"/>
     </row>
     <row r="31" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="85" t="s">
+        <v>104</v>
+      </c>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="F31" s="31">
+        <v>4</v>
+      </c>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="35"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35">
+        <v>4</v>
+      </c>
       <c r="M31" s="36"/>
       <c r="N31" s="34"/>
       <c r="O31" s="32"/>
       <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
+      <c r="Q31" s="36">
+        <v>4</v>
+      </c>
       <c r="R31" s="32"/>
       <c r="S31" s="36"/>
       <c r="T31" s="34"/>
@@ -4563,13 +4579,13 @@
       <c r="H32" s="31"/>
       <c r="I32" s="32"/>
       <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="35"/>
       <c r="M32" s="36"/>
       <c r="N32" s="34"/>
       <c r="O32" s="32"/>
       <c r="P32" s="36"/>
-      <c r="Q32" s="34"/>
+      <c r="Q32" s="36"/>
       <c r="R32" s="32"/>
       <c r="S32" s="36"/>
       <c r="T32" s="34"/>
@@ -4644,264 +4660,262 @@
       <c r="T35" s="34"/>
       <c r="U35" s="32"/>
     </row>
-    <row r="36" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="42"/>
-    </row>
-    <row r="37" spans="1:21" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="96"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="47">
-        <f t="shared" ref="C37:U37" si="0">SUM(C5:C36)</f>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="32"/>
+    </row>
+    <row r="37" spans="1:21" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="42"/>
+    </row>
+    <row r="38" spans="1:21" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="47">
+        <f t="shared" ref="C38:U38" si="0">SUM(C5:C37)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D38" s="47">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E37" s="47">
+        <v>19</v>
+      </c>
+      <c r="E38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F38" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H38" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L38" s="47">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M37" s="47">
+        <v>34</v>
+      </c>
+      <c r="M38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O37" s="47">
+      <c r="O38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P37" s="47">
+      <c r="P38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q38" s="47">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R37" s="47">
+      <c r="R38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S37" s="47">
+      <c r="S38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T37" s="47">
+      <c r="T38" s="47">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="U37" s="47">
+        <v>19</v>
+      </c>
+      <c r="U38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="48" t="s">
+    <row r="39" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D39" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E39" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F39" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G39" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H39" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="49" t="s">
+      <c r="I39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J39" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="51" t="s">
+      <c r="K39" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="51" t="s">
+      <c r="L39" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="51" t="s">
+      <c r="M39" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="51" t="s">
+      <c r="N39" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="51" t="s">
+      <c r="O39" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="P39" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="Q38" s="53" t="s">
+      <c r="Q39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="R38" s="51" t="s">
+      <c r="R39" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="S38" s="52" t="s">
+      <c r="S39" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="T38" s="53" t="s">
+      <c r="T39" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="U38" s="51" t="s">
+      <c r="U39" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
+    <row r="40" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57">
-        <f>C37+D37</f>
-        <v>18</v>
-      </c>
-      <c r="E39" s="98" t="s">
+      <c r="D40" s="57">
+        <f>C38+D38</f>
+        <v>19</v>
+      </c>
+      <c r="E40" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99">
-        <f>E37+F37+G37+H37</f>
+      <c r="F40" s="103"/>
+      <c r="G40" s="107">
+        <f>E38+F38+G38+H38</f>
         <v>15</v>
       </c>
-      <c r="H39" s="99"/>
-      <c r="I39" s="58">
-        <f>I37</f>
+      <c r="H40" s="107"/>
+      <c r="I40" s="58">
+        <f>I38</f>
         <v>0</v>
       </c>
-      <c r="J39" s="98" t="s">
+      <c r="J40" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="K39" s="98"/>
-      <c r="L39" s="57">
-        <f>J37+K37+L37</f>
-        <v>33</v>
-      </c>
-      <c r="M39" s="98" t="s">
+      <c r="K40" s="103"/>
+      <c r="L40" s="57">
+        <f>J38+K38+L38</f>
+        <v>34</v>
+      </c>
+      <c r="M40" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="N39" s="98"/>
-      <c r="O39" s="57">
-        <f>M37+N37+O37</f>
+      <c r="N40" s="103"/>
+      <c r="O40" s="57">
+        <f>M38+N38+O38</f>
         <v>0</v>
       </c>
-      <c r="P39" s="98" t="s">
+      <c r="P40" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="57">
-        <f>P37+Q37+R37</f>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="57">
+        <f>P38+Q38+R38</f>
         <v>15</v>
       </c>
-      <c r="S39" s="98" t="s">
+      <c r="S40" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="T39" s="98"/>
-      <c r="U39" s="57">
-        <f>S37+T37+U37</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="57">
+        <f>S38+T38+U38</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4914,17 +4928,19 @@
     </row>
     <row r="42" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="B42" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -4937,19 +4953,17 @@
     </row>
     <row r="43" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
-      <c r="B43" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4960,71 +4974,71 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
-      <c r="B44" s="102" t="s">
+    <row r="44" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="63"/>
+      <c r="B45" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-    </row>
-    <row r="45" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="64"/>
     </row>
     <row r="46" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
-      <c r="B46" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5037,19 +5051,19 @@
     </row>
     <row r="47" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
-      <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="B47" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5062,19 +5076,19 @@
     </row>
     <row r="48" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
-      <c r="B48" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="103"/>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5087,19 +5101,19 @@
     </row>
     <row r="49" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60"/>
-      <c r="B49" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
+      <c r="B49" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5112,19 +5126,19 @@
     </row>
     <row r="50" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="60"/>
-      <c r="B50" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
+      <c r="B50" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5137,17 +5151,19 @@
     </row>
     <row r="51" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
+      <c r="B51" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5160,17 +5176,10 @@
     </row>
     <row r="52" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="60"/>
-      <c r="B52" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="104"/>
-      <c r="E52" s="66">
-        <f>SUM(G39+D39)</f>
-        <v>33</v>
-      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="65"/>
       <c r="G52" s="65"/>
       <c r="H52" s="65"/>
@@ -5190,14 +5199,16 @@
     </row>
     <row r="53" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="104"/>
+      <c r="B53" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="100"/>
       <c r="E53" s="66">
-        <f>J37</f>
-        <v>0</v>
+        <f>SUM(G40+D40)</f>
+        <v>34</v>
       </c>
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
@@ -5219,12 +5230,12 @@
     <row r="54" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="60"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="104"/>
+      <c r="C54" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="100"/>
       <c r="E54" s="66">
-        <f>K37</f>
+        <f>J38</f>
         <v>0</v>
       </c>
       <c r="F54" s="65"/>
@@ -5247,13 +5258,13 @@
     <row r="55" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60"/>
       <c r="B55" s="65"/>
-      <c r="C55" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="104"/>
+      <c r="C55" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="100"/>
       <c r="E55" s="66">
-        <f>L37</f>
-        <v>33</v>
+        <f>K38</f>
+        <v>0</v>
       </c>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
@@ -5274,12 +5285,15 @@
     </row>
     <row r="56" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
-      <c r="B56" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="100"/>
+      <c r="E56" s="66">
+        <f>L38</f>
+        <v>34</v>
+      </c>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
       <c r="H56" s="65"/>
@@ -5299,14 +5313,11 @@
     </row>
     <row r="57" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
-      <c r="B57" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="65">
-        <f>ROUND((1+0.313*E54/E52)*(1+0.566*E55/E52),4)</f>
-        <v>1.5660000000000001</v>
-      </c>
+      <c r="B57" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="65"/>
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
@@ -5327,9 +5338,14 @@
     </row>
     <row r="58" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="60"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="B58" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="101"/>
+      <c r="D58" s="65">
+        <f>ROUND((1+0.313*E55/E53)*(1+0.566*E56/E53),4)</f>
+        <v>1.5660000000000001</v>
+      </c>
       <c r="E58" s="65"/>
       <c r="F58" s="65"/>
       <c r="G58" s="65"/>
@@ -5350,19 +5366,14 @@
     </row>
     <row r="59" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
-      <c r="B59" s="65" t="s">
-        <v>58</v>
-      </c>
+      <c r="B59" s="65"/>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
       <c r="E59" s="65"/>
       <c r="F59" s="65"/>
       <c r="G59" s="65"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="66">
-        <f>IF(D57&lt;1.313,1,IF(D57&lt;1.566,2,3))</f>
-        <v>3</v>
-      </c>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="65"/>
       <c r="K59" s="65"/>
       <c r="L59" s="65"/>
@@ -5378,24 +5389,22 @@
     </row>
     <row r="60" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="60"/>
-      <c r="B60" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="67">
-        <f>I59</f>
+      <c r="B60" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="66">
+        <f>IF(D58&lt;1.313,1,IF(D58&lt;1.566,2,3))</f>
         <v>3</v>
       </c>
-      <c r="K60" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="L60" s="103"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -5408,22 +5417,24 @@
     </row>
     <row r="61" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
-      <c r="B61" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="106">
-        <f>IF(J60=3,1,IF(J60=2,D57/1.313,D57))</f>
-        <v>1</v>
-      </c>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
+      <c r="B61" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="67">
+        <f>I60</f>
+        <v>3</v>
+      </c>
+      <c r="K61" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="98"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -5436,17 +5447,22 @@
     </row>
     <row r="62" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="60"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
+      <c r="B62" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="99">
+        <f>IF(J61=3,1,IF(J61=2,D58/1.313,D58))</f>
+        <v>1</v>
+      </c>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -5459,19 +5475,17 @@
     </row>
     <row r="63" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="60"/>
-      <c r="B63" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -5482,62 +5496,56 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="107"/>
-      <c r="D64" s="108" t="str">
-        <f>"(1+0,14*"&amp;N37&amp;"/"&amp;O39&amp;")*(1+0,51*"&amp;O37&amp;"/"&amp;O39&amp;") = "</f>
-        <v xml:space="preserve">(1+0,14*0/0)*(1+0,51*0/0) = </v>
-      </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="109">
-        <f>ROUND((1+0.14*IF(O39=0,0,N37/O39))*(1+0.51*IF(O39=0,0,O37/O39)),4)</f>
-        <v>1</v>
-      </c>
-      <c r="K64" s="109"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
+    <row r="64" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="60"/>
+      <c r="B64" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="62"/>
+      <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="62"/>
+      <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108" t="str">
-        <f>"(1+0,51*"&amp;Q37&amp;"/"&amp;R39&amp;")*(1+1,03*"&amp;R37&amp;"/"&amp;R39&amp;") = "</f>
-        <v xml:space="preserve">(1+0,51*15/15)*(1+1,03*0/15) = </v>
-      </c>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="109">
-        <f>ROUND((1+0.51*IF(R39=0,0,Q37/R39))*(1+1.03*IF(R39=0,0,R37/R39)),4)</f>
-        <v>1.51</v>
-      </c>
-      <c r="K65" s="109"/>
+      <c r="B65" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="92"/>
+      <c r="D65" s="96" t="str">
+        <f>"(1+0,14*"&amp;N38&amp;"/"&amp;O40&amp;")*(1+0,51*"&amp;O38&amp;"/"&amp;O40&amp;") = "</f>
+        <v xml:space="preserve">(1+0,14*0/0)*(1+0,51*0/0) = </v>
+      </c>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="97">
+        <f>ROUND((1+0.14*IF(O40=0,0,N38/O40))*(1+0.51*IF(O40=0,0,O38/O40)),4)</f>
+        <v>1</v>
+      </c>
+      <c r="K65" s="97"/>
       <c r="L65" s="62"/>
       <c r="M65" s="62"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="62"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="62"/>
@@ -5546,29 +5554,29 @@
     </row>
     <row r="66" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="107"/>
-      <c r="D66" s="108" t="str">
-        <f>"(1+0,61 * "&amp;T37&amp;"/"&amp;U39&amp;") * (1+ 1,39*"&amp;U37&amp;"/"&amp;U39&amp;") = "</f>
-        <v xml:space="preserve">(1+0,61 * 18/18) * (1+ 1,39*0/18) = </v>
-      </c>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="109">
-        <f>ROUND((1+0.61*IF(U39=0,0,T37/U39))*(1+1.39*IF(U39=0,0,U37/U39)),4)</f>
-        <v>1.61</v>
-      </c>
-      <c r="K66" s="109"/>
+      <c r="B66" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="92"/>
+      <c r="D66" s="96" t="str">
+        <f>"(1+0,51*"&amp;Q38&amp;"/"&amp;R40&amp;")*(1+1,03*"&amp;R38&amp;"/"&amp;R40&amp;") = "</f>
+        <v xml:space="preserve">(1+0,51*15/15)*(1+1,03*0/15) = </v>
+      </c>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="97">
+        <f>ROUND((1+0.51*IF(R40=0,0,Q38/R40))*(1+1.03*IF(R40=0,0,R38/R40)),4)</f>
+        <v>1.51</v>
+      </c>
+      <c r="K66" s="97"/>
       <c r="L66" s="62"/>
       <c r="M66" s="62"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="62"/>
+      <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="62"/>
@@ -5577,132 +5585,138 @@
     </row>
     <row r="67" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="107"/>
-      <c r="D67" s="108" t="str">
-        <f>"0,5 + "&amp;O39&amp;"/"&amp;R39&amp;" * "&amp;J64&amp;" * "&amp;J65&amp;" = "</f>
-        <v xml:space="preserve">0,5 + 0/15 * 1 * 1,51 = </v>
-      </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="110">
-        <f>ROUND(0.5+E37/G39*J64*J65,4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K67" s="110"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
+      <c r="B67" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="92"/>
+      <c r="D67" s="96" t="str">
+        <f>"(1+0,61 * "&amp;T38&amp;"/"&amp;U40&amp;") * (1+ 1,39*"&amp;U38&amp;"/"&amp;U40&amp;") = "</f>
+        <v xml:space="preserve">(1+0,61 * 19/19) * (1+ 1,39*0/19) = </v>
+      </c>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="97">
+        <f>ROUND((1+0.61*IF(U40=0,0,T38/U40))*(1+1.39*IF(U40=0,0,U38/U40)),4)</f>
+        <v>1.61</v>
+      </c>
+      <c r="K67" s="97"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="61"/>
+      <c r="P67" s="62"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="61"/>
+      <c r="S67" s="62"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="B68" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="108" t="str">
-        <f>"1,0+(1,3*"&amp;C37&amp;" + 0,95*"&amp;D37&amp;")/"&amp;L39&amp;"*"&amp;J66&amp;"= "</f>
-        <v xml:space="preserve">1,0+(1,3*0 + 0,95*18)/33*1,61= </v>
-      </c>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="110">
-        <f>ROUND(1+(1.31*C37+0.95*D37)/L39*J66,4)</f>
-        <v>1.8343</v>
-      </c>
-      <c r="K68" s="110"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
+      <c r="B68" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="92"/>
+      <c r="D68" s="96" t="str">
+        <f>"0,5 + "&amp;O40&amp;"/"&amp;R40&amp;" * "&amp;J65&amp;" * "&amp;J66&amp;" = "</f>
+        <v xml:space="preserve">0,5 + 0/15 * 1 * 1,51 = </v>
+      </c>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="93">
+        <f>ROUND(0.5+E38/G40*J65*J66,4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="93"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="60"/>
+      <c r="P68" s="61"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="60"/>
+      <c r="S68" s="61"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
     <row r="69" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="110">
-        <f>J67*J68</f>
-        <v>0.91715000000000002</v>
-      </c>
-      <c r="K69" s="110"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
+      <c r="B69" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="92"/>
+      <c r="D69" s="96" t="str">
+        <f>"1,0+(1,3*"&amp;C38&amp;" + 0,95*"&amp;D38&amp;")/"&amp;L40&amp;"*"&amp;J67&amp;"= "</f>
+        <v xml:space="preserve">1,0+(1,3*0 + 0,95*19)/34*1,61= </v>
+      </c>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="93">
+        <f>ROUND(1+(1.31*C38+0.95*D38)/L40*J67,4)</f>
+        <v>1.8547</v>
+      </c>
+      <c r="K69" s="93"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="61"/>
+      <c r="P69" s="60"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="61"/>
+      <c r="S69" s="60"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+      <c r="B70" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="93">
+        <f>J68*J69</f>
+        <v>0.92735000000000001</v>
+      </c>
+      <c r="K70" s="93"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="P70" s="61"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
+      <c r="S70" s="61"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
     <row r="71" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="101"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="101"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="101"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="101"/>
-      <c r="J71" s="101"/>
-      <c r="K71" s="101"/>
-      <c r="L71" s="101"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -5713,38 +5727,21 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="74">
-        <f>I59</f>
-        <v>3</v>
-      </c>
-      <c r="E72" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H72" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="I72" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J72" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="B72" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -5755,19 +5752,36 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="B73" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="74">
+        <f>I60</f>
+        <v>3</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -5780,39 +5794,19 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="74">
-        <f>I59</f>
-        <v>3</v>
-      </c>
-      <c r="E74" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="F74" s="76">
-        <f>J61</f>
-        <v>1</v>
-      </c>
-      <c r="G74" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="H74" s="77">
-        <f>J67</f>
-        <v>0.5</v>
-      </c>
-      <c r="I74" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J74" s="77">
-        <f>J68</f>
-        <v>1.8343</v>
-      </c>
+      <c r="B74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -5825,19 +5819,39 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="B75" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="74">
+        <f>I60</f>
+        <v>3</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="76">
+        <f>J62</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="77">
+        <f>J68</f>
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" s="77">
+        <f>J69</f>
+        <v>1.8547</v>
+      </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -5850,26 +5864,16 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="78">
-        <f>I59</f>
-        <v>3</v>
-      </c>
-      <c r="E76" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="F76" s="111">
-        <f>F74*H74*J74</f>
-        <v>0.91715000000000002</v>
-      </c>
-      <c r="G76" s="111"/>
+      <c r="B76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -5885,90 +5889,124 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N77" s="80"/>
-      <c r="Q77" s="80"/>
-    </row>
-    <row r="78" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="81" t="s">
+    <row r="77" spans="1:21" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="78">
+        <f>I60</f>
+        <v>3</v>
+      </c>
+      <c r="E77" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="95">
+        <f>F75*H75*J75</f>
+        <v>0.92735000000000001</v>
+      </c>
+      <c r="G77" s="95"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N78" s="80"/>
+      <c r="Q78" s="80"/>
+    </row>
+    <row r="79" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="82" t="s">
+    <row r="80" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="112" t="s">
+      <c r="C80" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="112"/>
-      <c r="E79" s="113">
-        <f>E52</f>
-        <v>33</v>
-      </c>
-      <c r="F79" s="113"/>
-    </row>
-    <row r="80" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="112"/>
-      <c r="E80" s="113">
-        <f>J60</f>
-        <v>3</v>
-      </c>
-      <c r="F80" s="113"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="89">
+        <f>E53</f>
+        <v>34</v>
+      </c>
+      <c r="F80" s="89"/>
     </row>
     <row r="81" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="88"/>
+      <c r="E81" s="89">
+        <f>J61</f>
+        <v>3</v>
+      </c>
+      <c r="F81" s="89"/>
+    </row>
+    <row r="82" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="112" t="s">
+      <c r="C82" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="112"/>
-      <c r="E81" s="114">
-        <f>F76</f>
-        <v>0.91715000000000002</v>
-      </c>
-      <c r="F81" s="114"/>
-    </row>
-    <row r="82" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-    </row>
-    <row r="83" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:21" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="90">
+        <f>F77</f>
+        <v>0.92735000000000001</v>
+      </c>
+      <c r="F82" s="90"/>
+    </row>
+    <row r="83" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+    </row>
+    <row r="84" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:21" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6004,59 +6042,9 @@
     <row r="120" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="121" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="122" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="B41:L41"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
@@ -6069,6 +6057,57 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B42:L42"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.59055118110236215" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
